--- a/biology/Zoologie/Dermatose_nodulaire_contagieuse/Dermatose_nodulaire_contagieuse.xlsx
+++ b/biology/Zoologie/Dermatose_nodulaire_contagieuse/Dermatose_nodulaire_contagieuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dermatose nodulaire contagieuse est une maladie animale causée par un virus de la famille des Poxviridae, également connu sous le nom de virus de Neethling.
-La maladie, transmise par des insectes hématophages et des acariens hématophages (tiques)[1] est rarement mortelle mais préjudiciable sur le plan économique car affectant les rendements de l'élevage du bétail. Cette maladie qui s'est étendue en Afrique depuis un siècle puis depuis 2012 au Moyen-Orient et vers le Sud-est européen et elle est maintenant (2015-2016) émergente en Europe (cas repérés en Grèce, Bulgarie et d'autres pays des Balkans)[1].
+La maladie, transmise par des insectes hématophages et des acariens hématophages (tiques) est rarement mortelle mais préjudiciable sur le plan économique car affectant les rendements de l'élevage du bétail. Cette maladie qui s'est étendue en Afrique depuis un siècle puis depuis 2012 au Moyen-Orient et vers le Sud-est européen et elle est maintenant (2015-2016) émergente en Europe (cas repérés en Grèce, Bulgarie et d'autres pays des Balkans).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Espèces touchées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle affecte principalement les bovins d'élevage et le zébus, mais touche également les girafes, les buffles d'Afrique et les impalas[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle affecte principalement les bovins d'élevage et le zébus, mais touche également les girafes, les buffles d'Afrique et les impalas.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire écoépidémiologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a eu une épidémie en Zambie en 1929, et depuis, la maladie affecte le bétail dans toute l'Afrique, y compris les pays du Sud de l'Afrique, l'Égypte et le Soudan et, en 1989, un foyer a été confirmé en Israël[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a eu une épidémie en Zambie en 1929, et depuis, la maladie affecte le bétail dans toute l'Afrique, y compris les pays du Sud de l'Afrique, l'Égypte et le Soudan et, en 1989, un foyer a été confirmé en Israël.
 Le virus se propage par les piqûres d'insectes (certains moustiques, certaines mouches et taons) qui piquent les animaux contaminés (lesquels restent longtemps contagieux).
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>La maladie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">la période d'incubation dure de deux à quatre semaines[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">la période d'incubation dure de deux à quatre semaines.
 Les symptômes comprennent de la fièvre, un écoulement des yeux et des naseaux, des lésions cutanées nodulaires palpables, douloureuses, qui vont devenir nécrotiques et se surinfecter, un œdème des membres, et un gonflement des ganglions lymphatiques.
 La morbidité peut être très élevée, mais la mortalité est faible.
 La maladie peut être facilement confondue dans ses premiers stades avec la pseudo-dermatose nodulaire (ou maladie d'Allerton).
@@ -610,11 +628,13 @@
           <t>Vaccination/prévention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1993, deux vaccins étaient disponibles, une version à virus vivant atténué de Neethling, l'autre à virus vivant atténué d'Orf[3].
-En aout 2016, après publication du rapport [4] (rendu public le 7 juillet [5]), les experts mandatés par l’AESA interrogée par la Commission européenne ont conclu, sur la base d'une étude de modélisation de l'efficacité relative de diverses mesures de lutte contre la propagation de cette maladie que la vaccination était la meilleure méthode[1].
-Selon eux « si la vaccination était méticuleusement appliquée, l'abattage partiel des animaux atteints se révélait aussi efficace pour éradiquer la maladie que l'abattage de troupeaux entiers, qui est actuellement exigé en vertu de la législation européenne. La vaccination est particulièrement efficace lorsqu’elle est appliquée avant que le virus ne s’introduise dans une région ou un pays. Les experts recommandent que la vaccination soit appliquée de manière uniforme dans tous les domaines »[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, deux vaccins étaient disponibles, une version à virus vivant atténué de Neethling, l'autre à virus vivant atténué d'Orf.
+En aout 2016, après publication du rapport  (rendu public le 7 juillet ), les experts mandatés par l’AESA interrogée par la Commission européenne ont conclu, sur la base d'une étude de modélisation de l'efficacité relative de diverses mesures de lutte contre la propagation de cette maladie que la vaccination était la meilleure méthode.
+Selon eux « si la vaccination était méticuleusement appliquée, l'abattage partiel des animaux atteints se révélait aussi efficace pour éradiquer la maladie que l'abattage de troupeaux entiers, qui est actuellement exigé en vertu de la législation européenne. La vaccination est particulièrement efficace lorsqu’elle est appliquée avant que le virus ne s’introduise dans une région ou un pays. Les experts recommandent que la vaccination soit appliquée de manière uniforme dans tous les domaines »
 Elle ne semble pas pouvoir être transmise à l'homme.
 </t>
         </is>
